--- a/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16BE9A6F-7638-4E89-8E78-4DA07822E029}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0413D9-E565-4763-B6E0-2FEA282DD39E}"/>
   <bookViews>
-    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>Unit</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>shut_down_cost</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>initial_units_on</t>
@@ -574,9 +571,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AA5" totalsRowShown="0">
-  <autoFilter ref="A1:AA5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:Z5" totalsRowShown="0">
+  <autoFilter ref="A1:Z5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
     <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
@@ -603,7 +600,6 @@
     <tableColumn id="26" xr3:uid="{BBB71EDD-0EC0-477F-903A-3BF251C590FC}" name="vom_cost_Output2"/>
     <tableColumn id="27" xr3:uid="{65A6FC97-CBF5-4192-8668-F1903C17C1F5}" name="connection_investment_tech_lifetime"/>
     <tableColumn id="28" xr3:uid="{6C87744B-3FF9-44BB-9394-82EE6DD0EE4E}" name="initial_connections_invested_available"/>
-    <tableColumn id="12" xr3:uid="{86FCF94A-62C6-4AAA-98E6-ACFA2E6930BE}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -937,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -956,7 +952,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>34</v>
@@ -965,16 +961,16 @@
         <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>103</v>
-      </c>
-      <c r="I1" t="s">
-        <v>104</v>
       </c>
       <c r="J1" t="s">
         <v>79</v>
@@ -992,7 +988,7 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P1" t="s">
         <v>36</v>
@@ -1001,7 +997,7 @@
         <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1019,7 +1015,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -1032,7 +1028,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1070,7 +1066,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>70</v>
@@ -1081,10 +1077,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
@@ -1095,13 +1091,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1147,10 +1143,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1159,31 +1155,31 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>98</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1199,7 +1195,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -1210,7 +1206,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1236,7 +1232,7 @@
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>5.8500000000000002E-3</v>
@@ -1256,7 +1252,7 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
@@ -1265,7 +1261,7 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>0.86792452830188682</v>
@@ -1282,13 +1278,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>
@@ -1296,16 +1292,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1319,9 +1315,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1348,7 +1346,7 @@
     <col min="26" max="26" width="37.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1427,11 +1425,8 @@
       <c r="Z1" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1483,14 +1478,14 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="AA2">
+      <c r="Z2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1539,14 +1534,14 @@
       <c r="U3">
         <v>7.2835616438356163E-2</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3">
+      <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -1568,8 +1563,11 @@
       <c r="G4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1577,7 +1575,7 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -1600,10 +1598,10 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>47</v>
       </c>
-      <c r="AA5">
+      <c r="Z5">
         <v>1</v>
       </c>
     </row>
@@ -1827,7 +1825,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
